--- a/Docs/Variable_contributions.xlsx
+++ b/Docs/Variable_contributions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laur/Desktop/Dean/Code/Erica_Dissertation/Erica_Dissertation/Analysis_Scripts/Chapter3/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91220457-4A17-3848-9C0B-228895ED6297}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDFB84-6208-1E40-8E73-E2EF6F581DA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{4FC09C79-156A-9745-B290-16248321C9B5}"/>
+    <workbookView xWindow="1380" yWindow="3160" windowWidth="15800" windowHeight="16940" xr2:uid="{4FC09C79-156A-9745-B290-16248321C9B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="69">
   <si>
     <t>MAXENT RUN</t>
   </si>
@@ -40,6 +40,204 @@
   </si>
   <si>
     <t>CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>Arb_strict</t>
+  </si>
+  <si>
+    <t>Terr_strict</t>
+  </si>
+  <si>
+    <t>Aqua_strict</t>
+  </si>
+  <si>
+    <t>Cave_strict</t>
+  </si>
+  <si>
+    <t>Sax_strict</t>
+  </si>
+  <si>
+    <t>Foss_strict</t>
+  </si>
+  <si>
+    <t>Arb_lenient</t>
+  </si>
+  <si>
+    <t>Terr_lenient</t>
+  </si>
+  <si>
+    <t>Aqua_lenient</t>
+  </si>
+  <si>
+    <t>Cave_lenient</t>
+  </si>
+  <si>
+    <t>Sax_lenient</t>
+  </si>
+  <si>
+    <t>Foss_lenient</t>
+  </si>
+  <si>
+    <t>Arb_M1</t>
+  </si>
+  <si>
+    <t>Terr_M1</t>
+  </si>
+  <si>
+    <t>Aqua_M1</t>
+  </si>
+  <si>
+    <t>Cave_M1</t>
+  </si>
+  <si>
+    <t>Sax_M1</t>
+  </si>
+  <si>
+    <t>Foss_M1</t>
+  </si>
+  <si>
+    <t>Arb_M2</t>
+  </si>
+  <si>
+    <t>Terr_M2</t>
+  </si>
+  <si>
+    <t>Aqua_M2</t>
+  </si>
+  <si>
+    <t>Cave_M2</t>
+  </si>
+  <si>
+    <t>Sax_M2</t>
+  </si>
+  <si>
+    <t>Foss_M2</t>
+  </si>
+  <si>
+    <t>Dirt_strict</t>
+  </si>
+  <si>
+    <t>Veg_strict</t>
+  </si>
+  <si>
+    <t>Rock_strict</t>
+  </si>
+  <si>
+    <t>Water_strict</t>
+  </si>
+  <si>
+    <t>Dirt_lenient</t>
+  </si>
+  <si>
+    <t>Veg_lenient</t>
+  </si>
+  <si>
+    <t>Rock_lenient</t>
+  </si>
+  <si>
+    <t>Water_lenient</t>
+  </si>
+  <si>
+    <t>PETDriestQuarter</t>
+  </si>
+  <si>
+    <t>PETWettestQuarter</t>
+  </si>
+  <si>
+    <t>16-PrecipWetQuarter</t>
+  </si>
+  <si>
+    <t>Cloud cover</t>
+  </si>
+  <si>
+    <t>6-MinTempColdMonth</t>
+  </si>
+  <si>
+    <t>17-PrecipDriestQuarter</t>
+  </si>
+  <si>
+    <t>1-AnnualTemp</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>MoistureIndex</t>
+  </si>
+  <si>
+    <t>12-AnnualPrecip</t>
+  </si>
+  <si>
+    <t>5-MaxTempWarmMonth</t>
+  </si>
+  <si>
+    <t>1-annualtemp</t>
+  </si>
+  <si>
+    <t>5-MaxTempWarm Month</t>
+  </si>
+  <si>
+    <t>cloud cover</t>
+  </si>
+  <si>
+    <t>16-PrecipWettestQuarter</t>
+  </si>
+  <si>
+    <t>17-precipdriestquarter</t>
+  </si>
+  <si>
+    <t>6-Mintempcoldmonth</t>
+  </si>
+  <si>
+    <t>5-Maxtempwarmmonth</t>
+  </si>
+  <si>
+    <t>Moisture index</t>
+  </si>
+  <si>
+    <t>16-PrecipWettestQuarte</t>
+  </si>
+  <si>
+    <t>12-Annualprecip</t>
+  </si>
+  <si>
+    <t>12-Annual precipitation</t>
+  </si>
+  <si>
+    <t>Moistureindex</t>
+  </si>
+  <si>
+    <t>moistureIndex</t>
+  </si>
+  <si>
+    <t>12-annual precipitation</t>
+  </si>
+  <si>
+    <t>16- precipwettestquarter</t>
+  </si>
+  <si>
+    <t>1- annual precipitation</t>
+  </si>
+  <si>
+    <t>5- Maxtempwarmmonth</t>
+  </si>
+  <si>
+    <t>16-PrecipitationWettestQuarter</t>
+  </si>
+  <si>
+    <t>1-annual temp</t>
+  </si>
+  <si>
+    <t>12-annual precip</t>
+  </si>
+  <si>
+    <t>5-maxtempwarmmonth</t>
+  </si>
+  <si>
+    <t>16-precipwettestquarter</t>
+  </si>
+  <si>
+    <t>12-annualprecip</t>
   </si>
 </sst>
 </file>
@@ -391,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40327527-240C-134D-8EAF-5EAAA31930AD}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,7 +608,7 @@
     <col min="15" max="15" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,6 +653,2302 @@
       </c>
       <c r="O1" t="s">
         <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>20.7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>16.8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>14.4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>3.9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2">
+        <v>1.3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2">
+        <v>0.6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2">
+        <v>0.4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>41.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>21.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>18.2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>7.4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>6.3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3">
+        <v>0.2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>58.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>29.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>5.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>3.2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>0.7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <v>0.7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4">
+        <v>0.6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4">
+        <v>0.2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>42.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>33.6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>2.9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5">
+        <v>2.5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5">
+        <v>1.6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5">
+        <v>0.9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5">
+        <v>0.6</v>
+      </c>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>45.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>27.7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>9.4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>7.4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>6.3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>1.3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>0.8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>0.7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6">
+        <v>0.3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>19.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>7.2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>3.6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7">
+        <v>2.8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>27.9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>17.3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>15.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8">
+        <v>14.6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>4.2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8">
+        <v>2.4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
+        <v>1.3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>21.9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>12.8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>10.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>59.8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>29.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>3.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>2.7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10">
+        <v>0.7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10">
+        <v>0.2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>47.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>38.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>7.4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>1.3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11">
+        <v>1.3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11">
+        <v>0.4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11">
+        <v>0.3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11">
+        <v>0.1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>45.7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>40.9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>5.6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>2.9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>1.7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12">
+        <v>0.6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12">
+        <v>0.4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12">
+        <v>0.1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>43.3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>33.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>6.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13">
+        <v>1.6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13">
+        <v>1.5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <v>0.8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>10.7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>8.4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14">
+        <v>4.3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <v>3.5</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14">
+        <v>0.4</v>
+      </c>
+      <c r="V14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>41.8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>19.7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>10.6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>3.6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15">
+        <v>3.4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15">
+        <v>0.8</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15">
+        <v>0.7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15">
+        <v>0.6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>29.8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <v>1.8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>1.4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16">
+        <v>0.9</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16">
+        <v>0.1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>44.6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>34.6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>5.2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>4.8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>1.6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17">
+        <v>1.2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>45.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>30.8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>9.4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18">
+        <v>6.6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3.8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>1.3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18">
+        <v>0.9</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18">
+        <v>0.8</v>
+      </c>
+      <c r="R18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>0.6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18">
+        <v>0.1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19">
+        <v>8.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>8.4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19">
+        <v>5.7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19">
+        <v>4.3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19">
+        <v>3.5</v>
+      </c>
+      <c r="T19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19">
+        <v>0.7</v>
+      </c>
+      <c r="V19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>29.4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>26.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>21.7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>5.7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>3.4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20">
+        <v>2.1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20">
+        <v>1.2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20">
+        <v>0.3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>45.7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>24.4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>10.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>8.1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>3.1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21">
+        <v>2.4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21">
+        <v>1.3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21">
+        <v>0.9</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21">
+        <v>0.7</v>
+      </c>
+      <c r="V21" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>58.6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>29.4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>7.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <v>3.3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>0.4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <v>0.3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22">
+        <v>0.2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22">
+        <v>0.2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22">
+        <v>0.1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22">
+        <v>0.1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>44.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>5.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>5.2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23">
+        <v>0.9</v>
+      </c>
+      <c r="R23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23">
+        <v>0.8</v>
+      </c>
+      <c r="T23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>52.6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>25.9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <v>6.1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <v>5.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <v>3.1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>2.7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24">
+        <v>1.5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24">
+        <v>1.3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24">
+        <v>0.9</v>
+      </c>
+      <c r="T24" t="s">
+        <v>63</v>
+      </c>
+      <c r="U24">
+        <v>0.2</v>
+      </c>
+      <c r="V24" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>46.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>25.8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>11.3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>6.7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>3.5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>2.9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25">
+        <v>0.7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25">
+        <v>0.3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25">
+        <v>0.2</v>
+      </c>
+      <c r="V25" t="s">
+        <v>59</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>24.6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>15.4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26">
+        <v>9.6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>4.5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26">
+        <v>3.7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26">
+        <v>1.6</v>
+      </c>
+      <c r="P26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26">
+        <v>0.8</v>
+      </c>
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26">
+        <v>0.3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>12.8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27">
+        <v>9.9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27">
+        <v>8.9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>3.7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27">
+        <v>3.6</v>
+      </c>
+      <c r="P27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27">
+        <v>2.7</v>
+      </c>
+      <c r="R27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27">
+        <v>1.6</v>
+      </c>
+      <c r="T27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U27">
+        <v>0.2</v>
+      </c>
+      <c r="V27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>47.3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>4.3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28">
+        <v>1.2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28">
+        <v>0.9</v>
+      </c>
+      <c r="P28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28">
+        <v>0.7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28">
+        <v>0.6</v>
+      </c>
+      <c r="T28" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28">
+        <v>0.4</v>
+      </c>
+      <c r="V28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>58.8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>30.2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>4.2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>3.6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29">
+        <v>0.5</v>
+      </c>
+      <c r="P29" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29">
+        <v>0.4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29">
+        <v>0.3</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29">
+        <v>0.1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>37.4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30">
+        <v>10.4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30">
+        <v>3.4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30">
+        <v>1.8</v>
+      </c>
+      <c r="P30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30">
+        <v>1.7</v>
+      </c>
+      <c r="R30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30">
+        <v>0.7</v>
+      </c>
+      <c r="T30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30">
+        <v>0.5</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>31.1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>13.1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>11.3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>10.8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>9.9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31">
+        <v>7.2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R31" t="s">
+        <v>67</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>51.9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>3.9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32">
+        <v>2.7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32">
+        <v>2.1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32">
+        <v>0.8</v>
+      </c>
+      <c r="P32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32">
+        <v>0.2</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U32">
+        <v>0.1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>59.4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>29.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>3.5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>1.4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33">
+        <v>0.5</v>
+      </c>
+      <c r="P33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33">
+        <v>0.4</v>
+      </c>
+      <c r="T33" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33">
+        <v>0.2</v>
+      </c>
+      <c r="V33" t="s">
+        <v>48</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Variable_contributions.xlsx
+++ b/Docs/Variable_contributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laur/Desktop/Dean/Code/Erica_Dissertation/Erica_Dissertation/Analysis_Scripts/Chapter3/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDFB84-6208-1E40-8E73-E2EF6F581DA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1E258-BCD4-AD4E-88D4-A84A5A5A9DC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3160" windowWidth="15800" windowHeight="16940" xr2:uid="{4FC09C79-156A-9745-B290-16248321C9B5}"/>
   </bookViews>
@@ -591,19 +591,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40327527-240C-134D-8EAF-5EAAA31930AD}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="15" max="15" width="14.1640625" customWidth="1"/>
   </cols>
